--- a/2_LF_Generator_Main/1_Schematic/Plasma_LF_Generator_Main_Issue and ECO list.xlsx
+++ b/2_LF_Generator_Main/1_Schematic/Plasma_LF_Generator_Main_Issue and ECO list.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
@@ -10,12 +10,12 @@
     <sheet name="Issue list" sheetId="1" r:id="rId1"/>
     <sheet name="ECO list" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="manual" calcCompleted="0"/>
+  <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -90,6 +90,19 @@
   </si>
   <si>
     <t>Closed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC/DC Converter(FST10-5FFM) 삭제하고, 외부 SMPS 사용
+ - Terminal Block으로 연결</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>220VAC CON를 Terminal Block으로 변경 - SMPS와 공용으로 사용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -607,7 +620,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -642,7 +655,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -855,7 +868,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -904,15 +917,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:9" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" s="45" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B4" s="38">
         <v>1</v>
       </c>
-      <c r="C4" s="39"/>
+      <c r="C4" s="39">
+        <v>43240</v>
+      </c>
       <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
+      <c r="E4" s="41" t="s">
+        <v>19</v>
+      </c>
       <c r="F4" s="39"/>
-      <c r="G4" s="42"/>
+      <c r="G4" s="42" t="s">
+        <v>20</v>
+      </c>
       <c r="H4" s="43"/>
       <c r="I4" s="44"/>
     </row>
@@ -920,11 +939,17 @@
       <c r="B5" s="46">
         <v>2</v>
       </c>
-      <c r="C5" s="47"/>
+      <c r="C5" s="47">
+        <v>43240</v>
+      </c>
       <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
+      <c r="E5" s="41" t="s">
+        <v>19</v>
+      </c>
       <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
+      <c r="G5" s="48" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" s="49"/>
       <c r="I5" s="50"/>
     </row>

--- a/2_LF_Generator_Main/1_Schematic/Plasma_LF_Generator_Main_Issue and ECO list.xlsx
+++ b/2_LF_Generator_Main/1_Schematic/Plasma_LF_Generator_Main_Issue and ECO list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Issue list" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -54,10 +54,6 @@
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>File</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -103,6 +99,50 @@
   </si>
   <si>
     <t>220VAC CON를 Terminal Block으로 변경 - SMPS와 공용으로 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5273-06A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMPS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FST10-5FFM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR-900M-03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR-762C-04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부 SMPS사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부 SMPS 연결을 위한 CON 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Screw Type의 CON로 변경</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -866,9 +906,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -905,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>4</v>
@@ -926,11 +966,11 @@
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="43"/>
       <c r="I4" s="44"/>
@@ -944,11 +984,11 @@
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="49"/>
       <c r="I5" s="50"/>
@@ -1279,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J33"/>
+  <dimension ref="B1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1290,35 +1330,34 @@
     <col min="1" max="1" width="4.375" style="6" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="6" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="47" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="6"/>
-    <col min="7" max="8" width="24.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="50.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.375" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="6"/>
+    <col min="4" max="4" width="17.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="6"/>
+    <col min="6" max="7" width="24.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="50.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B1" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="15" t="s">
@@ -1327,261 +1366,297 @@
       <c r="H3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="17">
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="7">
+        <v>43242</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="21">
         <v>2</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="24"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="24"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="21">
         <v>3</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="24"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D6" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="21">
         <v>4</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="24"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="21">
         <v>5</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="24"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H8" s="22"/>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="21">
         <v>6</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="24"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H9" s="22"/>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="21">
         <v>7</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="24"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="21">
         <v>8</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H11" s="25"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="21">
         <v>9</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="24"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="21">
         <v>10</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="24"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="21">
         <v>11</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="24"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G14" s="22"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="21">
         <v>12</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="24"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I15" s="24"/>
+      <c r="K15" s="6">
+        <v>28.5</v>
+      </c>
+      <c r="L15" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="21">
         <v>13</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="24"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I16" s="24"/>
+      <c r="K16" s="6">
+        <f>K15/2</f>
+        <v>14.25</v>
+      </c>
+      <c r="L16" s="6">
+        <f>L15/2</f>
+        <v>3.75</v>
+      </c>
+      <c r="M16" s="6">
+        <f>9-L16</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="21">
         <v>14</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="25"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="24"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F17" s="23"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="24"/>
+      <c r="M17" s="6">
+        <f>9+L16</f>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="21">
         <v>15</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="24"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I18" s="24"/>
+      <c r="K18" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="21">
         <v>16</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="24"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I19" s="24"/>
+      <c r="K19" s="6">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="21">
         <v>17</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="24"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I20" s="24"/>
+      <c r="K20" s="6">
+        <f>K18-K19</f>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="21">
         <v>18</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="24"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="21">
         <v>19</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
+      <c r="G22" s="22"/>
       <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="24"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I22" s="24"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="21">
         <v>20</v>
       </c>
@@ -1591,10 +1666,18 @@
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="24"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I23" s="24"/>
+      <c r="K23" s="6">
+        <v>7.62</v>
+      </c>
+      <c r="L23" s="6">
+        <v>32</v>
+      </c>
+      <c r="M23" s="6">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="21">
         <v>21</v>
       </c>
@@ -1604,10 +1687,21 @@
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="24"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I24" s="24"/>
+      <c r="K24" s="6">
+        <f>K23/2</f>
+        <v>3.81</v>
+      </c>
+      <c r="L24" s="6">
+        <f>L23/2</f>
+        <v>16</v>
+      </c>
+      <c r="M24" s="6">
+        <f>M23/2</f>
+        <v>3.1349999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="21">
         <v>22</v>
       </c>
@@ -1617,10 +1711,9 @@
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="24"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="21">
         <v>23</v>
       </c>
@@ -1630,10 +1723,9 @@
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="24"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I26" s="24"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="21">
         <v>24</v>
       </c>
@@ -1643,10 +1735,16 @@
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="24"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I27" s="24"/>
+      <c r="K27" s="6">
+        <v>3.81</v>
+      </c>
+      <c r="L27" s="6">
+        <f>K27+K23</f>
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="21">
         <v>25</v>
       </c>
@@ -1656,10 +1754,17 @@
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="24"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I28" s="24"/>
+      <c r="K28" s="6">
+        <f>K27-M24</f>
+        <v>0.67500000000000027</v>
+      </c>
+      <c r="L28" s="6">
+        <f>L27-M24</f>
+        <v>8.2949999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="21"/>
       <c r="C29" s="8"/>
       <c r="D29" s="22"/>
@@ -1667,10 +1772,17 @@
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="24"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I29" s="24"/>
+      <c r="K29" s="6">
+        <f>K27+M24</f>
+        <v>6.9450000000000003</v>
+      </c>
+      <c r="L29" s="6">
+        <f>L27+M24</f>
+        <v>14.565</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="21"/>
       <c r="C30" s="8"/>
       <c r="D30" s="22"/>
@@ -1678,10 +1790,9 @@
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="24"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I30" s="24"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="21"/>
       <c r="C31" s="8"/>
       <c r="D31" s="22"/>
@@ -1689,10 +1800,9 @@
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="24"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="21"/>
       <c r="C32" s="8"/>
       <c r="D32" s="22"/>
@@ -1700,10 +1810,9 @@
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="24"/>
-    </row>
-    <row r="33" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I32" s="24"/>
+    </row>
+    <row r="33" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="26"/>
       <c r="C33" s="9"/>
       <c r="D33" s="27"/>
@@ -1711,8 +1820,7 @@
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="28"/>
+      <c r="I33" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/2_LF_Generator_Main/1_Schematic/Plasma_LF_Generator_Main_Issue and ECO list.xlsx
+++ b/2_LF_Generator_Main/1_Schematic/Plasma_LF_Generator_Main_Issue and ECO list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Issue list" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -86,10 +86,6 @@
   </si>
   <si>
     <t>Closed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -122,27 +118,74 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>P5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부 SMPS사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부 SMPS 연결을 위한 CON 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Screw Type의 CON로 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>BR-900M-03</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>P5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BR-762C-04</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>외부 SMPS사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>외부 SMPS 연결을 위한 CON 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Screw Type의 CON로 변경</t>
+    <t>BR-762C-04 적용 - 250V / 10A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMPS Terminal block가 별도로 사용
+BR-900M-03 적용 - 250V / 20A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCH/PCB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current transducer Vout에 RC filter 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current transducer Vout에 대한 ADC 변환값이 위로 치우쳐 있음
+ - 7.5A에서 3.28V ( ADC 254 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Voltage divider 추가 검토
+2. RC filter에 의해 voltage drop이 발생하는 경우, RC filter tuning으로 range 조정이 가능할 수 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F/W</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power 계산 table 작성 후 F/W 전달</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +246,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -448,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -561,27 +610,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -598,6 +629,42 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -906,20 +973,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9" style="6"/>
+    <col min="2" max="2" width="6.5" style="6" customWidth="1"/>
     <col min="3" max="3" width="11.125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="6"/>
     <col min="6" max="6" width="11.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="62.75" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="65.125" style="6" customWidth="1"/>
     <col min="9" max="9" width="48.25" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -957,293 +1024,331 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:9" s="45" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B4" s="38">
+    <row r="4" spans="2:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B4" s="45">
         <v>1</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="46">
         <v>43240</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41" t="s">
+      <c r="D4" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="46">
+        <v>43242</v>
+      </c>
+      <c r="G4" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="42" t="s">
+      <c r="H4" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="51"/>
+    </row>
+    <row r="5" spans="2:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B5" s="52">
+        <v>2</v>
+      </c>
+      <c r="C5" s="53">
+        <v>43240</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="53">
+        <v>43242</v>
+      </c>
+      <c r="G5" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
-    </row>
-    <row r="5" spans="2:9" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="46">
-        <v>2</v>
-      </c>
-      <c r="C5" s="47">
-        <v>43240</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41" t="s">
+      <c r="H5" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="56"/>
+    </row>
+    <row r="6" spans="2:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="40">
+        <v>3</v>
+      </c>
+      <c r="C6" s="41">
+        <v>43243</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
+    </row>
+    <row r="7" spans="2:9" s="39" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="40">
+        <v>4</v>
+      </c>
+      <c r="C7" s="41">
+        <v>43243</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="44"/>
+    </row>
+    <row r="8" spans="2:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="40">
+        <v>5</v>
+      </c>
+      <c r="C8" s="41">
+        <v>43243</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="43"/>
+      <c r="I8" s="44"/>
+    </row>
+    <row r="9" spans="2:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="40">
+        <v>6</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
+    </row>
+    <row r="10" spans="2:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="40">
+        <v>7</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+    </row>
+    <row r="11" spans="2:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="40">
+        <v>8</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="44"/>
+    </row>
+    <row r="12" spans="2:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="40">
+        <v>9</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
+    </row>
+    <row r="13" spans="2:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="40">
+        <v>10</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
+    </row>
+    <row r="14" spans="2:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="40">
+        <v>11</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="44"/>
+    </row>
+    <row r="15" spans="2:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="40">
+        <v>12</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="44"/>
+    </row>
+    <row r="16" spans="2:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="40">
+        <v>13</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="44"/>
+    </row>
+    <row r="17" spans="2:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="40">
+        <v>14</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="44"/>
+    </row>
+    <row r="18" spans="2:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="40">
+        <v>15</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="44"/>
+    </row>
+    <row r="19" spans="2:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="40">
+        <v>16</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="44"/>
+    </row>
+    <row r="20" spans="2:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="40">
+        <v>17</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44"/>
+    </row>
+    <row r="21" spans="2:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="40">
         <v>18</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48" t="s">
+      <c r="C21" s="41"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="44"/>
+    </row>
+    <row r="22" spans="2:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="40">
+        <v>19</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="44"/>
+    </row>
+    <row r="23" spans="2:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="40">
         <v>20</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="50"/>
-    </row>
-    <row r="6" spans="2:9" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="46">
-        <v>3</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="50"/>
-    </row>
-    <row r="7" spans="2:9" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="46">
-        <v>4</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="50"/>
-    </row>
-    <row r="8" spans="2:9" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="46">
-        <v>5</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="50"/>
-    </row>
-    <row r="9" spans="2:9" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="46">
-        <v>6</v>
-      </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
-    </row>
-    <row r="10" spans="2:9" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="46">
-        <v>7</v>
-      </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="50"/>
-    </row>
-    <row r="11" spans="2:9" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="46">
-        <v>8</v>
-      </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="50"/>
-    </row>
-    <row r="12" spans="2:9" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="46">
-        <v>9</v>
-      </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="50"/>
-    </row>
-    <row r="13" spans="2:9" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="46">
-        <v>10</v>
-      </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="50"/>
-    </row>
-    <row r="14" spans="2:9" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="46">
-        <v>11</v>
-      </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
-    </row>
-    <row r="15" spans="2:9" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="46">
-        <v>12</v>
-      </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="50"/>
-    </row>
-    <row r="16" spans="2:9" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="46">
-        <v>13</v>
-      </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50"/>
-    </row>
-    <row r="17" spans="2:9" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="46">
-        <v>14</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
-    </row>
-    <row r="18" spans="2:9" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="46">
-        <v>15</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50"/>
-    </row>
-    <row r="19" spans="2:9" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="46">
-        <v>16</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="50"/>
-    </row>
-    <row r="20" spans="2:9" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="46">
-        <v>17</v>
-      </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="50"/>
-    </row>
-    <row r="21" spans="2:9" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="46">
-        <v>18</v>
-      </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="50"/>
-    </row>
-    <row r="22" spans="2:9" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="46">
-        <v>19</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="50"/>
-    </row>
-    <row r="23" spans="2:9" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="46">
-        <v>20</v>
-      </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="50"/>
-    </row>
-    <row r="24" spans="2:9" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="46">
+      <c r="C23" s="41"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="44"/>
+    </row>
+    <row r="24" spans="2:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="40">
         <v>21</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-    </row>
-    <row r="25" spans="2:9" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="46">
+      <c r="C24" s="41"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="44"/>
+    </row>
+    <row r="25" spans="2:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="40">
         <v>22</v>
       </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-    </row>
-    <row r="26" spans="2:9" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="46">
+      <c r="C25" s="41"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="44"/>
+    </row>
+    <row r="26" spans="2:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="40">
         <v>23</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
@@ -1321,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1378,17 +1483,17 @@
         <v>43242</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I4" s="20"/>
     </row>
@@ -1398,17 +1503,17 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="37" t="s">
-        <v>25</v>
-      </c>
       <c r="H5" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I5" s="24"/>
     </row>
@@ -1418,17 +1523,17 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I6" s="24"/>
     </row>
